--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2843.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2843.xlsx
@@ -354,7 +354,7 @@
         <v>2.443615493871825</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.362470860922171</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2843.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2843.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17037489029654</v>
+        <v>1.190194845199585</v>
       </c>
       <c r="B1">
-        <v>2.443615493871825</v>
+        <v>2.088051080703735</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.258359909057617</v>
       </c>
       <c r="D1">
-        <v>2.362470860922171</v>
+        <v>3.001795530319214</v>
       </c>
       <c r="E1">
-        <v>1.233988970871371</v>
+        <v>1.213371396064758</v>
       </c>
     </row>
   </sheetData>
